--- a/test/Bing.Offices.Tests/Resources/Bugs/issue2.xlsx
+++ b/test/Bing.Offices.Tests/Resources/Bugs/issue2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\Utopa\Bing.Offices\test\Bing.Offices.Tests\Resources\Bugs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="导入数据" sheetId="1" r:id="rId1"/>
@@ -23,24 +28,26 @@
     <author>pansijie</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>需与系统的仓库名称一致</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">需与系统的仓库名称一致
@@ -673,20 +680,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="177" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="[$-409]d/mmm;@"/>
     <numFmt numFmtId="181" formatCode="000000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,18 +702,21 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -717,216 +724,85 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Songti SC Regular"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Songti SC Regular"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -941,7 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,194 +827,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1205,66 +895,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1278,232 +908,53 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="181" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1522,10 +973,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1534,85 +985,43 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="25">
+    <cellStyle name=" 3]_x000d__x000a_Zoomed=1_x000d__x000a_Row=128_x000d__x000a_Column=101_x000d__x000a_Height=300_x000d__x000a_Width=301_x000d__x000a_FontName=System_x000d__x000a_FontStyle=1_x000d__x000a_FontSize=12_x000d__x000a_PrtFontNa" xfId="6"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="4"/>
+    <cellStyle name="Normal 2 8" xfId="8"/>
+    <cellStyle name="Normal 3 2 4" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="11"/>
+    <cellStyle name="Normal_Crystal Shine  ColorRich 2 2 2" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="Normal_Crystal Shine  ColorRich 2 2 2" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="常规 102" xfId="13"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="19"/>
-    <cellStyle name="标题" xfId="20" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="21" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="Normal 3 2 4" xfId="37"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name=" 3]_x000d__x000a_Zoomed=1_x000d__x000a_Row=128_x000d__x000a_Column=101_x000d__x000a_Height=300_x000d__x000a_Width=301_x000d__x000a_FontName=System_x000d__x000a_FontStyle=1_x000d__x000a_FontSize=12_x000d__x000a_PrtFontNa" xfId="39"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="常规 2 2 3" xfId="42"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="46" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="Normal 2 8" xfId="48"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="49" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="50" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="51"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="54" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="55"/>
-    <cellStyle name="Normal 4" xfId="56"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="57" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
-    <cellStyle name="常规 2 4" xfId="59"/>
-    <cellStyle name="常规 11 13" xfId="60"/>
-    <cellStyle name="常规 17" xfId="61"/>
-    <cellStyle name="常规 2" xfId="62"/>
-    <cellStyle name="常规 2 6" xfId="63"/>
-    <cellStyle name="常规 23" xfId="64"/>
-    <cellStyle name="常规 3" xfId="65"/>
-    <cellStyle name="常规 3 2" xfId="66"/>
-    <cellStyle name="常规 42" xfId="67"/>
-    <cellStyle name="常规 5" xfId="68"/>
-    <cellStyle name="千位分隔 2" xfId="69"/>
-    <cellStyle name="千位分隔 2 2 2" xfId="70"/>
-    <cellStyle name="千位分隔 7" xfId="71"/>
+    <cellStyle name="常规 10" xfId="10"/>
+    <cellStyle name="常规 102" xfId="3"/>
+    <cellStyle name="常规 11 13" xfId="13"/>
+    <cellStyle name="常规 17" xfId="14"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="常规 2 2" xfId="9"/>
+    <cellStyle name="常规 2 2 3" xfId="7"/>
+    <cellStyle name="常规 2 4" xfId="12"/>
+    <cellStyle name="常规 2 6" xfId="16"/>
+    <cellStyle name="常规 23" xfId="17"/>
+    <cellStyle name="常规 3" xfId="18"/>
+    <cellStyle name="常规 3 2" xfId="19"/>
+    <cellStyle name="常规 42" xfId="20"/>
+    <cellStyle name="常规 5" xfId="21"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="千位分隔 2" xfId="22"/>
+    <cellStyle name="千位分隔 2 2 2" xfId="23"/>
+    <cellStyle name="千位分隔 7" xfId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1899,16 +1308,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34706,9 +34115,6 @@
       <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3"/>
-      <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -51089,31 +50495,37 @@
       <c r="XFC3"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:2">
+    <row r="4" spans="1:16384" ht="16.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
-    <row r="5" ht="16.5" spans="1:2">
+    <row r="5" spans="1:16384" ht="16.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
-    <row r="6" s="5" customFormat="1" ht="16.5" spans="1:2">
+    <row r="6" spans="1:16384" s="5" customFormat="1" ht="16.5">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
+    <row r="7" spans="1:16384" ht="16.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -51121,8 +50533,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="6"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
-    <row r="8" ht="16.5" spans="1:3">
+    <row r="8" spans="1:16384" ht="16.5">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -51130,8 +50544,9 @@
         <v>7</v>
       </c>
       <c r="C8" s="6"/>
+      <c r="E8" s="18"/>
     </row>
-    <row r="9" ht="16.5" spans="1:3">
+    <row r="9" spans="1:16384" ht="16.5">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -51139,8 +50554,9 @@
         <v>7</v>
       </c>
       <c r="C9" s="6"/>
+      <c r="E9" s="18"/>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" spans="1:16384" ht="16.5">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -51148,8 +50564,9 @@
         <v>7</v>
       </c>
       <c r="C10" s="14"/>
+      <c r="E10" s="18"/>
     </row>
-    <row r="11" ht="16.5" spans="1:3">
+    <row r="11" spans="1:16384" ht="16.5">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -51157,8 +50574,9 @@
         <v>7</v>
       </c>
       <c r="C11" s="6"/>
+      <c r="E11" s="18"/>
     </row>
-    <row r="12" ht="16.5" spans="1:3">
+    <row r="12" spans="1:16384" ht="16.5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -51166,8 +50584,9 @@
         <v>7</v>
       </c>
       <c r="C12" s="6"/>
+      <c r="E12" s="18"/>
     </row>
-    <row r="13" ht="16.5" spans="1:2">
+    <row r="13" spans="1:16384" ht="16.5">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -51175,7 +50594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:2">
+    <row r="14" spans="1:16384" ht="16.5">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -51183,7 +50602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:2">
+    <row r="15" spans="1:16384" ht="16.5">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -51191,7 +50610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:12">
+    <row r="16" spans="1:16384" ht="16.5">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -51200,7 +50619,7 @@
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" ht="16.5" spans="1:2">
+    <row r="17" spans="1:2" ht="16.5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -51208,7 +50627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:2">
+    <row r="18" spans="1:2" ht="16.5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -51216,7 +50635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:2">
+    <row r="19" spans="1:2" ht="16.5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -51224,7 +50643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:2">
+    <row r="20" spans="1:2" ht="16.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -51232,7 +50651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:2">
+    <row r="21" spans="1:2" ht="16.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -51240,7 +50659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:2">
+    <row r="22" spans="1:2" ht="16.5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -51248,7 +50667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:2">
+    <row r="23" spans="1:2" ht="16.5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -51256,7 +50675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:2">
+    <row r="24" spans="1:2" ht="16.5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -51264,7 +50683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:2">
+    <row r="25" spans="1:2" ht="16.5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -51272,7 +50691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:2">
+    <row r="26" spans="1:2" ht="16.5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -51280,7 +50699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:2">
+    <row r="27" spans="1:2" ht="16.5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -51288,7 +50707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:2">
+    <row r="28" spans="1:2" ht="16.5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -51296,7 +50715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:2">
+    <row r="29" spans="1:2" ht="16.5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -51304,7 +50723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:2">
+    <row r="30" spans="1:2" ht="16.5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -51312,7 +50731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:2">
+    <row r="31" spans="1:2" ht="16.5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -51320,7 +50739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:2">
+    <row r="32" spans="1:2" ht="16.5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -51328,7 +50747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:2">
+    <row r="33" spans="1:2" ht="16.5">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -51336,7 +50755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:2">
+    <row r="34" spans="1:2" ht="16.5">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -51344,7 +50763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:2">
+    <row r="35" spans="1:2" ht="16.5">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -51352,7 +50771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:2">
+    <row r="36" spans="1:2" ht="16.5">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -51360,7 +50779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:2">
+    <row r="37" spans="1:2" ht="16.5">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -51368,7 +50787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:2">
+    <row r="38" spans="1:2" ht="16.5">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -51376,7 +50795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:2">
+    <row r="39" spans="1:2" ht="16.5">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -51384,7 +50803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:2">
+    <row r="40" spans="1:2" ht="16.5">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -51392,7 +50811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:2">
+    <row r="41" spans="1:2" ht="16.5">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -51400,7 +50819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:2">
+    <row r="42" spans="1:2" ht="16.5">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -51408,7 +50827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:2">
+    <row r="43" spans="1:2" ht="16.5">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -51416,7 +50835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:2">
+    <row r="44" spans="1:2" ht="16.5">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -51424,7 +50843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:2">
+    <row r="45" spans="1:2" ht="16.5">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -51432,7 +50851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:2">
+    <row r="46" spans="1:2" ht="16.5">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -51440,7 +50859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:2">
+    <row r="47" spans="1:2" ht="16.5">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -51448,7 +50867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:2">
+    <row r="48" spans="1:2" ht="16.5">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -51456,7 +50875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:2">
+    <row r="49" spans="1:2" ht="16.5">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -51464,7 +50883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:2">
+    <row r="50" spans="1:2" ht="16.5">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -51472,7 +50891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:2">
+    <row r="51" spans="1:2" ht="16.5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -51480,7 +50899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:2">
+    <row r="52" spans="1:2" ht="16.5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -51488,7 +50907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:2">
+    <row r="53" spans="1:2" ht="16.5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -51496,7 +50915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:2">
+    <row r="54" spans="1:2" ht="16.5">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -51504,7 +50923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:2">
+    <row r="55" spans="1:2" ht="16.5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -51512,7 +50931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:2">
+    <row r="56" spans="1:2" ht="16.5">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -51520,7 +50939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:2">
+    <row r="57" spans="1:2" ht="16.5">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -51528,7 +50947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:2">
+    <row r="58" spans="1:2" ht="16.5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -51536,7 +50955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:2">
+    <row r="59" spans="1:2" ht="16.5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -51544,7 +50963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:2">
+    <row r="60" spans="1:2" ht="16.5">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -51552,7 +50971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:2">
+    <row r="61" spans="1:2" ht="16.5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -51560,7 +50979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:2">
+    <row r="62" spans="1:2" ht="16.5">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -51568,7 +50987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:2">
+    <row r="63" spans="1:2" ht="16.5">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -51576,7 +50995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:2">
+    <row r="64" spans="1:2" ht="16.5">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -51584,7 +51003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:2">
+    <row r="65" spans="1:2" ht="16.5">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -51592,7 +51011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:2">
+    <row r="66" spans="1:2" ht="16.5">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -51600,7 +51019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:2">
+    <row r="67" spans="1:2" ht="16.5">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -51608,7 +51027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:2">
+    <row r="68" spans="1:2" ht="16.5">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -51616,7 +51035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:2">
+    <row r="69" spans="1:2" ht="16.5">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -51624,7 +51043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:2">
+    <row r="70" spans="1:2" ht="16.5">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -51632,7 +51051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:2">
+    <row r="71" spans="1:2" ht="16.5">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -51640,7 +51059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:2">
+    <row r="72" spans="1:2" ht="16.5">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -51648,7 +51067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:2">
+    <row r="73" spans="1:2" ht="16.5">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -51656,7 +51075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" ht="16.5" spans="1:2">
+    <row r="74" spans="1:2" ht="16.5">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -51664,7 +51083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:2">
+    <row r="75" spans="1:2" ht="16.5">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -51672,7 +51091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" ht="16.5" spans="1:2">
+    <row r="76" spans="1:2" ht="16.5">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -51680,7 +51099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:2">
+    <row r="77" spans="1:2" ht="16.5">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -51688,7 +51107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:2">
+    <row r="78" spans="1:2" ht="16.5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -51696,7 +51115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:2">
+    <row r="79" spans="1:2" ht="16.5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -51704,7 +51123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:2">
+    <row r="80" spans="1:2" ht="16.5">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -51712,7 +51131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:2">
+    <row r="81" spans="1:2" ht="16.5">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -51720,7 +51139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:2">
+    <row r="82" spans="1:2" ht="16.5">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -51728,7 +51147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:2">
+    <row r="83" spans="1:2" ht="16.5">
       <c r="A83" s="16" t="s">
         <v>86</v>
       </c>
@@ -51736,7 +51155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:2">
+    <row r="84" spans="1:2" ht="16.5">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -51744,7 +51163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:2">
+    <row r="85" spans="1:2" ht="16.5">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -51752,7 +51171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:2">
+    <row r="86" spans="1:2" ht="16.5">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -51760,7 +51179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:2">
+    <row r="87" spans="1:2" ht="16.5">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -51768,7 +51187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:2">
+    <row r="88" spans="1:2" ht="16.5">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -51776,7 +51195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:2">
+    <row r="89" spans="1:2" ht="16.5">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -51784,7 +51203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:2">
+    <row r="90" spans="1:2" ht="16.5">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -51792,7 +51211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:2">
+    <row r="91" spans="1:2" ht="16.5">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -51800,7 +51219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:2">
+    <row r="92" spans="1:2" ht="16.5">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -51808,7 +51227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:2">
+    <row r="93" spans="1:2" ht="16.5">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -51816,7 +51235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:2">
+    <row r="94" spans="1:2" ht="16.5">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -51824,7 +51243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:2">
+    <row r="95" spans="1:2" ht="16.5">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -51832,7 +51251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:2">
+    <row r="96" spans="1:2" ht="16.5">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -51840,7 +51259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:2">
+    <row r="97" spans="1:2" ht="16.5">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -51848,7 +51267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:2">
+    <row r="98" spans="1:2" ht="16.5">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -51856,7 +51275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:2">
+    <row r="99" spans="1:2" ht="16.5">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -51864,7 +51283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:2">
+    <row r="100" spans="1:2" ht="16.5">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -51872,7 +51291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:2">
+    <row r="101" spans="1:2" ht="16.5">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -51880,7 +51299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:2">
+    <row r="102" spans="1:2" ht="16.5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -51888,7 +51307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:2">
+    <row r="103" spans="1:2" ht="16.5">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -51896,7 +51315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:2">
+    <row r="104" spans="1:2" ht="16.5">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -51904,7 +51323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:2">
+    <row r="105" spans="1:2" ht="16.5">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -51912,7 +51331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:2">
+    <row r="106" spans="1:2" ht="16.5">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -51920,7 +51339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:2">
+    <row r="107" spans="1:2" ht="16.5">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -51928,7 +51347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:2">
+    <row r="108" spans="1:2" ht="16.5">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -51936,7 +51355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:2">
+    <row r="109" spans="1:2" ht="16.5">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -51944,7 +51363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:2">
+    <row r="110" spans="1:2" ht="16.5">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -51952,7 +51371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:2">
+    <row r="111" spans="1:2" ht="16.5">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -51960,7 +51379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:2">
+    <row r="112" spans="1:2" ht="16.5">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -51968,7 +51387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:2">
+    <row r="113" spans="1:2" ht="16.5">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -51976,7 +51395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:2">
+    <row r="114" spans="1:2" ht="16.5">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -51984,7 +51403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:2">
+    <row r="115" spans="1:2" ht="16.5">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -51992,7 +51411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:2">
+    <row r="116" spans="1:2" ht="16.5">
       <c r="A116" t="s">
         <v>117</v>
       </c>
@@ -52000,7 +51419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:2">
+    <row r="117" spans="1:2" ht="16.5">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -52008,7 +51427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:2">
+    <row r="118" spans="1:2" ht="16.5">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -52016,7 +51435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" ht="16.5" spans="1:2">
+    <row r="119" spans="1:2" ht="16.5">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -52024,7 +51443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:2">
+    <row r="120" spans="1:2" ht="16.5">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -52032,7 +51451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:2">
+    <row r="121" spans="1:2" ht="16.5">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -52040,7 +51459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:2">
+    <row r="122" spans="1:2" ht="16.5">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -52048,7 +51467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:2">
+    <row r="123" spans="1:2" ht="16.5">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -52056,7 +51475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:2">
+    <row r="124" spans="1:2" ht="16.5">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -52064,7 +51483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:2">
+    <row r="125" spans="1:2" ht="16.5">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -52072,7 +51491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:2">
+    <row r="126" spans="1:2" ht="16.5">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -52080,7 +51499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:2">
+    <row r="127" spans="1:2" ht="16.5">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -52088,7 +51507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:2">
+    <row r="128" spans="1:2" ht="16.5">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -52096,7 +51515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:2">
+    <row r="129" spans="1:2" ht="16.5">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -52104,7 +51523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:2">
+    <row r="130" spans="1:2" ht="16.5">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -52112,7 +51531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:2">
+    <row r="131" spans="1:2" ht="16.5">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -52120,7 +51539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:2">
+    <row r="132" spans="1:2" ht="16.5">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -52128,7 +51547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:2">
+    <row r="133" spans="1:2" ht="16.5">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -52136,7 +51555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:2">
+    <row r="134" spans="1:2" ht="16.5">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -52144,7 +51563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:2">
+    <row r="135" spans="1:2" ht="16.5">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -52152,7 +51571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:2">
+    <row r="136" spans="1:2" ht="16.5">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -52160,7 +51579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:2">
+    <row r="137" spans="1:2" ht="16.5">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -52168,7 +51587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:2">
+    <row r="138" spans="1:2" ht="16.5">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -52176,7 +51595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:2">
+    <row r="139" spans="1:2" ht="16.5">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -52184,7 +51603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:2">
+    <row r="140" spans="1:2" ht="16.5">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -52192,7 +51611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:2">
+    <row r="141" spans="1:2" ht="16.5">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -52200,7 +51619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:2">
+    <row r="142" spans="1:2" ht="16.5">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -52208,7 +51627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:2">
+    <row r="143" spans="1:2" ht="16.5">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -52216,7 +51635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:2">
+    <row r="144" spans="1:2" ht="16.5">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -52224,7 +51643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:2">
+    <row r="145" spans="1:2" ht="16.5">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -52232,7 +51651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:2">
+    <row r="146" spans="1:2" ht="16.5">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -52240,7 +51659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:2">
+    <row r="147" spans="1:2" ht="16.5">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -52248,7 +51667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:2">
+    <row r="148" spans="1:2" ht="16.5">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -52256,7 +51675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:2">
+    <row r="149" spans="1:2" ht="16.5">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -52264,7 +51683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:2">
+    <row r="150" spans="1:2" ht="16.5">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -52272,7 +51691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:2">
+    <row r="151" spans="1:2" ht="16.5">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -52280,7 +51699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:2">
+    <row r="152" spans="1:2" ht="16.5">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -52288,7 +51707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:2">
+    <row r="153" spans="1:2" ht="16.5">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -52296,7 +51715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:2">
+    <row r="154" spans="1:2" ht="16.5">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -52304,7 +51723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:2">
+    <row r="155" spans="1:2" ht="16.5">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -52312,7 +51731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:2">
+    <row r="156" spans="1:2" ht="16.5">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -52320,7 +51739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:2">
+    <row r="157" spans="1:2" ht="16.5">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -52328,7 +51747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:2">
+    <row r="158" spans="1:2" ht="16.5">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -52336,7 +51755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:2">
+    <row r="159" spans="1:2" ht="16.5">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -52344,7 +51763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:2">
+    <row r="160" spans="1:2" ht="16.5">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -52352,7 +51771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:2">
+    <row r="161" spans="1:2" ht="16.5">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -52360,7 +51779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:2">
+    <row r="162" spans="1:2" ht="16.5">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -52368,7 +51787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:2">
+    <row r="163" spans="1:2" ht="16.5">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -52376,7 +51795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:2">
+    <row r="164" spans="1:2" ht="16.5">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -52384,7 +51803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:2">
+    <row r="165" spans="1:2" ht="16.5">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -52392,7 +51811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:2">
+    <row r="166" spans="1:2" ht="16.5">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -52400,7 +51819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:2">
+    <row r="167" spans="1:2" ht="16.5">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -52408,7 +51827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:2">
+    <row r="168" spans="1:2" ht="16.5">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -52416,7 +51835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:2">
+    <row r="169" spans="1:2" ht="16.5">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -52424,7 +51843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:2">
+    <row r="170" spans="1:2" ht="16.5">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -52432,7 +51851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:2">
+    <row r="171" spans="1:2" ht="16.5">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -52440,7 +51859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:2">
+    <row r="172" spans="1:2" ht="16.5">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -52448,7 +51867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:2">
+    <row r="173" spans="1:2" ht="16.5">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -52456,7 +51875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:2">
+    <row r="174" spans="1:2" ht="16.5">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -52464,7 +51883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:2">
+    <row r="175" spans="1:2" ht="16.5">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -52472,7 +51891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:2">
+    <row r="176" spans="1:2" ht="16.5">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -52480,7 +51899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:2">
+    <row r="177" spans="1:2" ht="16.5">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -52488,7 +51907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:2">
+    <row r="178" spans="1:2" ht="16.5">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -52496,7 +51915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:2">
+    <row r="179" spans="1:2" ht="16.5">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -52504,7 +51923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" ht="16.5" spans="1:2">
+    <row r="180" spans="1:2" ht="16.5">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -52512,7 +51931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" ht="16.5" spans="1:2">
+    <row r="181" spans="1:2" ht="16.5">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -52520,7 +51939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" ht="16.5" spans="1:2">
+    <row r="182" spans="1:2" ht="16.5">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -52528,7 +51947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:2">
+    <row r="183" spans="1:2" ht="16.5">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -52536,7 +51955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:2">
+    <row r="184" spans="1:2" ht="16.5">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -52544,7 +51963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:2">
+    <row r="185" spans="1:2" ht="16.5">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -52552,7 +51971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:2">
+    <row r="186" spans="1:2" ht="16.5">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -52560,7 +51979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:2">
+    <row r="187" spans="1:2" ht="16.5">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -52568,7 +51987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:2">
+    <row r="188" spans="1:2" ht="16.5">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -52576,7 +51995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:2">
+    <row r="189" spans="1:2" ht="16.5">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -52584,7 +52003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:2">
+    <row r="190" spans="1:2" ht="16.5">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -52592,7 +52011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:2">
+    <row r="191" spans="1:2" ht="16.5">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -52600,7 +52019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:2">
+    <row r="192" spans="1:2" ht="16.5">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -52608,7 +52027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:2">
+    <row r="193" spans="1:2" ht="16.5">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -52616,7 +52035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:2">
+    <row r="194" spans="1:2" ht="16.5">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -52624,7 +52043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:2">
+    <row r="195" spans="1:2" ht="16.5">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -52632,7 +52051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:2">
+    <row r="196" spans="1:2" ht="16.5">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -52640,7 +52059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:2">
+    <row r="197" spans="1:2" ht="16.5">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -52648,7 +52067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:2">
+    <row r="198" spans="1:2" ht="16.5">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -52656,7 +52075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:2">
+    <row r="199" spans="1:2" ht="16.5">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -52664,7 +52083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" ht="17.25" spans="1:2">
+    <row r="200" spans="1:2" ht="16.5">
       <c r="A200" s="17" t="s">
         <v>199</v>
       </c>
@@ -52672,7 +52091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:2">
+    <row r="201" spans="1:2" ht="16.5">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -52680,7 +52099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:2">
+    <row r="202" spans="1:2" ht="16.5">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -52688,7 +52107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:2">
+    <row r="203" spans="1:2" ht="16.5">
       <c r="A203">
         <v>12101489</v>
       </c>
@@ -52696,7 +52115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:2">
+    <row r="204" spans="1:2" ht="16.5">
       <c r="A204">
         <v>12101093</v>
       </c>
@@ -52704,7 +52123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:2">
+    <row r="205" spans="1:2" ht="16.5">
       <c r="A205">
         <v>12101795</v>
       </c>
@@ -52712,7 +52131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:2">
+    <row r="206" spans="1:2" ht="16.5">
       <c r="A206">
         <v>12101446</v>
       </c>
@@ -52720,7 +52139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:2">
+    <row r="207" spans="1:2" ht="16.5">
       <c r="A207">
         <v>12101956</v>
       </c>
@@ -52728,7 +52147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:2">
+    <row r="208" spans="1:2" ht="16.5">
       <c r="A208">
         <v>12101745</v>
       </c>
@@ -52736,7 +52155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:2">
+    <row r="209" spans="1:2" ht="16.5">
       <c r="A209">
         <v>12101499</v>
       </c>
@@ -52744,7 +52163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:2">
+    <row r="210" spans="1:2" ht="16.5">
       <c r="A210">
         <v>12101370</v>
       </c>
@@ -52752,7 +52171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:2">
+    <row r="211" spans="1:2" ht="16.5">
       <c r="A211">
         <v>12101748</v>
       </c>
@@ -52760,7 +52179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:2">
+    <row r="212" spans="1:2" ht="16.5">
       <c r="A212">
         <v>12101835</v>
       </c>
@@ -52768,7 +52187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:2">
+    <row r="213" spans="1:2" ht="16.5">
       <c r="A213">
         <v>12101012</v>
       </c>
@@ -52776,7 +52195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:2">
+    <row r="214" spans="1:2" ht="16.5">
       <c r="A214">
         <v>12101815</v>
       </c>
@@ -52784,7 +52203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:2">
+    <row r="215" spans="1:2" ht="16.5">
       <c r="A215">
         <v>12101498</v>
       </c>
@@ -52792,7 +52211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:2">
+    <row r="216" spans="1:2" ht="16.5">
       <c r="A216">
         <v>12101141</v>
       </c>
@@ -52800,7 +52219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:2">
+    <row r="217" spans="1:2" ht="16.5">
       <c r="A217">
         <v>12101490</v>
       </c>
@@ -52808,7 +52227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:2">
+    <row r="218" spans="1:2" ht="16.5">
       <c r="A218">
         <v>12101369</v>
       </c>
@@ -52816,7 +52235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:2">
+    <row r="219" spans="1:2" ht="16.5">
       <c r="A219">
         <v>12101695</v>
       </c>
@@ -52824,7 +52243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:2">
+    <row r="220" spans="1:2" ht="16.5">
       <c r="A220">
         <v>12101731</v>
       </c>
@@ -52832,7 +52251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:2">
+    <row r="221" spans="1:2" ht="16.5">
       <c r="A221">
         <v>12101636</v>
       </c>
@@ -52840,7 +52259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:2">
+    <row r="222" spans="1:2" ht="16.5">
       <c r="A222">
         <v>12101388</v>
       </c>
@@ -52848,7 +52267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:2">
+    <row r="223" spans="1:2" ht="16.5">
       <c r="A223">
         <v>12101053</v>
       </c>
@@ -52856,7 +52275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:2">
+    <row r="224" spans="1:2" ht="16.5">
       <c r="A224">
         <v>12101055</v>
       </c>
@@ -52864,7 +52283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:2">
+    <row r="225" spans="1:2" ht="16.5">
       <c r="A225">
         <v>12101208</v>
       </c>
@@ -52872,7 +52291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:2">
+    <row r="226" spans="1:2" ht="16.5">
       <c r="A226">
         <v>12101787</v>
       </c>
@@ -52880,7 +52299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:2">
+    <row r="227" spans="1:2" ht="16.5">
       <c r="A227">
         <v>12101131</v>
       </c>
@@ -52888,7 +52307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:2">
+    <row r="228" spans="1:2" ht="16.5">
       <c r="A228">
         <v>12101683</v>
       </c>
@@ -52896,7 +52315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:2">
+    <row r="229" spans="1:2" ht="16.5">
       <c r="A229">
         <v>12101347</v>
       </c>
@@ -52904,7 +52323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:2">
+    <row r="230" spans="1:2" ht="16.5">
       <c r="A230">
         <v>12101704</v>
       </c>
@@ -52912,7 +52331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:2">
+    <row r="231" spans="1:2" ht="16.5">
       <c r="A231">
         <v>12101137</v>
       </c>
@@ -52920,7 +52339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:2">
+    <row r="232" spans="1:2" ht="16.5">
       <c r="A232">
         <v>12101870</v>
       </c>
@@ -52928,7 +52347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:2">
+    <row r="233" spans="1:2" ht="16.5">
       <c r="A233">
         <v>12101810</v>
       </c>
@@ -52936,7 +52355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:2">
+    <row r="234" spans="1:2" ht="16.5">
       <c r="A234">
         <v>12101275</v>
       </c>
@@ -52944,7 +52363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:2">
+    <row r="235" spans="1:2" ht="16.5">
       <c r="A235">
         <v>12101832</v>
       </c>
@@ -52952,7 +52371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:2">
+    <row r="236" spans="1:2" ht="16.5">
       <c r="A236">
         <v>12101341</v>
       </c>
@@ -52960,7 +52379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:2">
+    <row r="237" spans="1:2" ht="16.5">
       <c r="A237">
         <v>12101522</v>
       </c>
@@ -52968,7 +52387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:2">
+    <row r="238" spans="1:2" ht="16.5">
       <c r="A238">
         <v>12101034</v>
       </c>
@@ -52976,7 +52395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:2">
+    <row r="239" spans="1:2" ht="16.5">
       <c r="A239">
         <v>12101788</v>
       </c>
@@ -52984,7 +52403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:2">
+    <row r="240" spans="1:2" ht="16.5">
       <c r="A240">
         <v>12101090</v>
       </c>
@@ -52992,7 +52411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:2">
+    <row r="241" spans="1:2" ht="16.5">
       <c r="A241">
         <v>12101843</v>
       </c>
@@ -53000,7 +52419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:2">
+    <row r="242" spans="1:2" ht="16.5">
       <c r="A242">
         <v>12101807</v>
       </c>
@@ -53008,7 +52427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:2">
+    <row r="243" spans="1:2" ht="16.5">
       <c r="A243">
         <v>12101152</v>
       </c>
@@ -53016,7 +52435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:2">
+    <row r="244" spans="1:2" ht="16.5">
       <c r="A244">
         <v>12101903</v>
       </c>
@@ -53024,7 +52443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:2">
+    <row r="245" spans="1:2" ht="16.5">
       <c r="A245">
         <v>12101140</v>
       </c>
@@ -53032,7 +52451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:2">
+    <row r="246" spans="1:2" ht="16.5">
       <c r="A246">
         <v>12101569</v>
       </c>
@@ -53040,7 +52459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:2">
+    <row r="247" spans="1:2" ht="16.5">
       <c r="A247">
         <v>12101963</v>
       </c>
@@ -53048,7 +52467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:2">
+    <row r="248" spans="1:2" ht="16.5">
       <c r="A248">
         <v>12101362</v>
       </c>
@@ -53056,7 +52475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:2">
+    <row r="249" spans="1:2" ht="16.5">
       <c r="A249">
         <v>12101481</v>
       </c>
@@ -53064,7 +52483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:2">
+    <row r="250" spans="1:2" ht="16.5">
       <c r="A250">
         <v>12101898</v>
       </c>
@@ -53072,7 +52491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:2">
+    <row r="251" spans="1:2" ht="16.5">
       <c r="A251">
         <v>12101924</v>
       </c>
@@ -53080,7 +52499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:2">
+    <row r="252" spans="1:2" ht="16.5">
       <c r="A252">
         <v>12101579</v>
       </c>
@@ -53088,7 +52507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:2">
+    <row r="253" spans="1:2" ht="16.5">
       <c r="A253">
         <v>12101401</v>
       </c>
@@ -53096,7 +52515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:2">
+    <row r="254" spans="1:2" ht="16.5">
       <c r="A254">
         <v>12101431</v>
       </c>
@@ -53104,7 +52523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:2">
+    <row r="255" spans="1:2" ht="16.5">
       <c r="A255">
         <v>12101617</v>
       </c>
@@ -53112,7 +52531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" ht="16.5" spans="1:2">
+    <row r="256" spans="1:2" ht="16.5">
       <c r="A256">
         <v>12101833</v>
       </c>
@@ -53120,7 +52539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" ht="16.5" spans="1:2">
+    <row r="257" spans="1:2" ht="16.5">
       <c r="A257">
         <v>12101367</v>
       </c>
@@ -53128,7 +52547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" ht="16.5" spans="1:2">
+    <row r="258" spans="1:2" ht="16.5">
       <c r="A258">
         <v>12101106</v>
       </c>
@@ -53136,7 +52555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" ht="16.5" spans="1:2">
+    <row r="259" spans="1:2" ht="16.5">
       <c r="A259">
         <v>12101872</v>
       </c>
@@ -53144,7 +52563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" ht="16.5" spans="1:2">
+    <row r="260" spans="1:2" ht="16.5">
       <c r="A260">
         <v>12101509</v>
       </c>
@@ -53152,7 +52571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:2">
+    <row r="261" spans="1:2" ht="16.5">
       <c r="A261">
         <v>12101276</v>
       </c>
@@ -53160,7 +52579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:2">
+    <row r="262" spans="1:2" ht="16.5">
       <c r="A262">
         <v>12101831</v>
       </c>
@@ -53168,7 +52587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" ht="16.5" spans="1:2">
+    <row r="263" spans="1:2" ht="16.5">
       <c r="A263">
         <v>12101946</v>
       </c>
@@ -53176,7 +52595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" ht="16.5" spans="1:2">
+    <row r="264" spans="1:2" ht="16.5">
       <c r="A264">
         <v>12101278</v>
       </c>
@@ -53184,7 +52603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" ht="16.5" spans="1:2">
+    <row r="265" spans="1:2" ht="16.5">
       <c r="A265">
         <v>12101484</v>
       </c>
@@ -53192,7 +52611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" ht="16.5" spans="1:2">
+    <row r="266" spans="1:2" ht="16.5">
       <c r="A266">
         <v>12101865</v>
       </c>
@@ -53200,7 +52619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" ht="16.5" spans="1:2">
+    <row r="267" spans="1:2" ht="16.5">
       <c r="A267">
         <v>12101216</v>
       </c>
@@ -53208,7 +52627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" ht="16.5" spans="1:2">
+    <row r="268" spans="1:2" ht="16.5">
       <c r="A268">
         <v>12101662</v>
       </c>
@@ -53216,7 +52635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" ht="16.5" spans="1:2">
+    <row r="269" spans="1:2" ht="16.5">
       <c r="A269">
         <v>12101414</v>
       </c>
@@ -53224,7 +52643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" ht="16.5" spans="1:2">
+    <row r="270" spans="1:2" ht="16.5">
       <c r="A270">
         <v>12101145</v>
       </c>
@@ -53232,7 +52651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" ht="16.5" spans="1:2">
+    <row r="271" spans="1:2" ht="16.5">
       <c r="A271">
         <v>12101507</v>
       </c>
@@ -53240,7 +52659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" ht="16.5" spans="1:2">
+    <row r="272" spans="1:2" ht="16.5">
       <c r="A272">
         <v>12101818</v>
       </c>
@@ -53248,7 +52667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" ht="16.5" spans="1:2">
+    <row r="273" spans="1:2" ht="16.5">
       <c r="A273">
         <v>12101351</v>
       </c>
@@ -53256,7 +52675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" ht="16.5" spans="1:2">
+    <row r="274" spans="1:2" ht="16.5">
       <c r="A274">
         <v>12101478</v>
       </c>
@@ -53264,7 +52683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" ht="16.5" spans="1:2">
+    <row r="275" spans="1:2" ht="16.5">
       <c r="A275">
         <v>12101211</v>
       </c>
@@ -53272,7 +52691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" ht="16.5" spans="1:2">
+    <row r="276" spans="1:2" ht="16.5">
       <c r="A276">
         <v>12101942</v>
       </c>
@@ -53280,7 +52699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" ht="16.5" spans="1:2">
+    <row r="277" spans="1:2" ht="16.5">
       <c r="A277">
         <v>12101627</v>
       </c>
@@ -53288,7 +52707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:2">
+    <row r="278" spans="1:2" ht="16.5">
       <c r="A278">
         <v>12101227</v>
       </c>
@@ -53296,7 +52715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:2">
+    <row r="279" spans="1:2" ht="16.5">
       <c r="A279">
         <v>12101196</v>
       </c>
@@ -53304,7 +52723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:2">
+    <row r="280" spans="1:2" ht="16.5">
       <c r="A280">
         <v>12101947</v>
       </c>
@@ -53312,7 +52731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:2">
+    <row r="281" spans="1:2" ht="16.5">
       <c r="A281">
         <v>12101919</v>
       </c>
@@ -53320,7 +52739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:2">
+    <row r="282" spans="1:2" ht="16.5">
       <c r="A282">
         <v>12101010</v>
       </c>
@@ -53328,7 +52747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:2">
+    <row r="283" spans="1:2" ht="16.5">
       <c r="A283">
         <v>12101333</v>
       </c>
@@ -53336,7 +52755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" ht="16.5" spans="1:2">
+    <row r="284" spans="1:2" ht="16.5">
       <c r="A284">
         <v>12101719</v>
       </c>
@@ -53344,7 +52763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" ht="16.5" spans="1:2">
+    <row r="285" spans="1:2" ht="16.5">
       <c r="A285">
         <v>12101953</v>
       </c>
@@ -53352,7 +52771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" ht="16.5" spans="1:2">
+    <row r="286" spans="1:2" ht="16.5">
       <c r="A286">
         <v>12101821</v>
       </c>
@@ -53360,7 +52779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" ht="16.5" spans="1:2">
+    <row r="287" spans="1:2" ht="16.5">
       <c r="A287">
         <v>12101550</v>
       </c>
@@ -53368,7 +52787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" ht="16.5" spans="1:2">
+    <row r="288" spans="1:2" ht="16.5">
       <c r="A288">
         <v>12101902</v>
       </c>
@@ -53376,7 +52795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:2">
+    <row r="289" spans="1:2" ht="16.5">
       <c r="A289">
         <v>12101437</v>
       </c>
@@ -53384,7 +52803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" ht="16.5" spans="1:2">
+    <row r="290" spans="1:2" ht="16.5">
       <c r="A290">
         <v>12101177</v>
       </c>
@@ -53392,7 +52811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" ht="16.5" spans="1:2">
+    <row r="291" spans="1:2" ht="16.5">
       <c r="A291">
         <v>12101127</v>
       </c>
@@ -53400,7 +52819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:2">
+    <row r="292" spans="1:2" ht="16.5">
       <c r="A292">
         <v>12101776</v>
       </c>
@@ -53408,7 +52827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:2">
+    <row r="293" spans="1:2" ht="16.5">
       <c r="A293">
         <v>12101016</v>
       </c>
@@ -53416,7 +52835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:2">
+    <row r="294" spans="1:2" ht="16.5">
       <c r="A294">
         <v>12101681</v>
       </c>
@@ -53424,7 +52843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" ht="16.5" spans="1:2">
+    <row r="295" spans="1:2" ht="16.5">
       <c r="A295">
         <v>12101975</v>
       </c>
@@ -53432,7 +52851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" ht="16.5" spans="1:2">
+    <row r="296" spans="1:2" ht="16.5">
       <c r="A296">
         <v>12101358</v>
       </c>
@@ -53440,7 +52859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" ht="16.5" spans="1:2">
+    <row r="297" spans="1:2" ht="16.5">
       <c r="A297">
         <v>12101415</v>
       </c>
@@ -53448,7 +52867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" ht="16.5" spans="1:2">
+    <row r="298" spans="1:2" ht="16.5">
       <c r="A298">
         <v>12101527</v>
       </c>
@@ -53456,7 +52875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" ht="16.5" spans="1:2">
+    <row r="299" spans="1:2" ht="16.5">
       <c r="A299">
         <v>12101364</v>
       </c>
@@ -53464,7 +52883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" ht="16.5" spans="1:2">
+    <row r="300" spans="1:2" ht="16.5">
       <c r="A300">
         <v>12101781</v>
       </c>
@@ -53472,7 +52891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" ht="16.5" spans="1:2">
+    <row r="301" spans="1:2" ht="16.5">
       <c r="A301">
         <v>12101440</v>
       </c>
@@ -53480,7 +52899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:2">
+    <row r="302" spans="1:2" ht="16.5">
       <c r="A302">
         <v>12101673</v>
       </c>
@@ -53488,7 +52907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:2">
+    <row r="303" spans="1:2" ht="16.5">
       <c r="A303">
         <v>12101789</v>
       </c>
@@ -53496,7 +52915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:2">
+    <row r="304" spans="1:2" ht="16.5">
       <c r="A304">
         <v>12101571</v>
       </c>
@@ -53504,7 +52923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" ht="16.5" spans="1:2">
+    <row r="305" spans="1:2" ht="16.5">
       <c r="A305">
         <v>12101339</v>
       </c>
@@ -53512,7 +52931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" ht="16.5" spans="1:2">
+    <row r="306" spans="1:2" ht="16.5">
       <c r="A306">
         <v>12101514</v>
       </c>
@@ -53520,7 +52939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:2">
+    <row r="307" spans="1:2" ht="16.5">
       <c r="A307">
         <v>12101677</v>
       </c>
@@ -53528,7 +52947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" ht="16.5" spans="1:2">
+    <row r="308" spans="1:2" ht="16.5">
       <c r="A308">
         <v>12101387</v>
       </c>
@@ -53536,7 +52955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" ht="16.5" spans="1:2">
+    <row r="309" spans="1:2" ht="16.5">
       <c r="A309">
         <v>12101932</v>
       </c>
@@ -53544,7 +52963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" ht="16.5" spans="1:2">
+    <row r="310" spans="1:2" ht="16.5">
       <c r="A310">
         <v>12101042</v>
       </c>
@@ -53552,7 +52971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" ht="16.5" spans="1:2">
+    <row r="311" spans="1:2" ht="16.5">
       <c r="A311">
         <v>12101497</v>
       </c>
@@ -53560,7 +52979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" ht="16.5" spans="1:2">
+    <row r="312" spans="1:2" ht="16.5">
       <c r="A312">
         <v>12101477</v>
       </c>
@@ -53568,7 +52987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" ht="16.5" spans="1:2">
+    <row r="313" spans="1:2" ht="16.5">
       <c r="A313">
         <v>12101713</v>
       </c>
@@ -53576,7 +52995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" ht="16.5" spans="1:2">
+    <row r="314" spans="1:2" ht="16.5">
       <c r="A314">
         <v>12101030</v>
       </c>
@@ -53584,7 +53003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" ht="16.5" spans="1:2">
+    <row r="315" spans="1:2" ht="16.5">
       <c r="A315">
         <v>12101296</v>
       </c>
@@ -53592,7 +53011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" ht="16.5" spans="1:2">
+    <row r="316" spans="1:2" ht="16.5">
       <c r="A316">
         <v>12101857</v>
       </c>
@@ -53600,7 +53019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" ht="16.5" spans="1:2">
+    <row r="317" spans="1:2" ht="16.5">
       <c r="A317">
         <v>12101027</v>
       </c>
@@ -53608,7 +53027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" ht="16.5" spans="1:2">
+    <row r="318" spans="1:2" ht="16.5">
       <c r="A318">
         <v>12101634</v>
       </c>
@@ -53616,7 +53035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" ht="16.5" spans="1:2">
+    <row r="319" spans="1:2" ht="16.5">
       <c r="A319">
         <v>12101389</v>
       </c>
@@ -53624,7 +53043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" ht="16.5" spans="1:2">
+    <row r="320" spans="1:2" ht="16.5">
       <c r="A320">
         <v>12101023</v>
       </c>
@@ -53632,7 +53051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" ht="16.5" spans="1:2">
+    <row r="321" spans="1:2" ht="16.5">
       <c r="A321">
         <v>12101759</v>
       </c>
@@ -53640,7 +53059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" ht="16.5" spans="1:2">
+    <row r="322" spans="1:2" ht="16.5">
       <c r="A322">
         <v>12101901</v>
       </c>
@@ -53648,7 +53067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" ht="16.5" spans="1:2">
+    <row r="323" spans="1:2" ht="16.5">
       <c r="A323">
         <v>12101618</v>
       </c>
@@ -53656,7 +53075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:2">
+    <row r="324" spans="1:2" ht="16.5">
       <c r="A324">
         <v>12101694</v>
       </c>
@@ -53664,7 +53083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:2">
+    <row r="325" spans="1:2" ht="16.5">
       <c r="A325">
         <v>12101922</v>
       </c>
@@ -53672,7 +53091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:2">
+    <row r="326" spans="1:2" ht="16.5">
       <c r="A326">
         <v>12101009</v>
       </c>
@@ -53680,7 +53099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" ht="16.5" spans="1:2">
+    <row r="327" spans="1:2" ht="16.5">
       <c r="A327">
         <v>12101399</v>
       </c>
@@ -53688,7 +53107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:2">
+    <row r="328" spans="1:2" ht="16.5">
       <c r="A328">
         <v>12101472</v>
       </c>
@@ -53696,7 +53115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:2">
+    <row r="329" spans="1:2" ht="16.5">
       <c r="A329">
         <v>12101948</v>
       </c>
@@ -53704,7 +53123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:2">
+    <row r="330" spans="1:2" ht="16.5">
       <c r="A330">
         <v>12101447</v>
       </c>
@@ -53712,7 +53131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" ht="16.5" spans="1:2">
+    <row r="331" spans="1:2" ht="16.5">
       <c r="A331">
         <v>12101597</v>
       </c>
@@ -53720,7 +53139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" ht="16.5" spans="1:2">
+    <row r="332" spans="1:2" ht="16.5">
       <c r="A332">
         <v>12101214</v>
       </c>
@@ -53728,7 +53147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" ht="16.5" spans="1:2">
+    <row r="333" spans="1:2" ht="16.5">
       <c r="A333">
         <v>12101108</v>
       </c>
@@ -53736,7 +53155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" ht="16.5" spans="1:2">
+    <row r="334" spans="1:2" ht="16.5">
       <c r="A334">
         <v>12101474</v>
       </c>
@@ -53744,7 +53163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" ht="16.5" spans="1:2">
+    <row r="335" spans="1:2" ht="16.5">
       <c r="A335">
         <v>12101005</v>
       </c>
@@ -53752,7 +53171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" ht="16.5" spans="1:2">
+    <row r="336" spans="1:2" ht="16.5">
       <c r="A336">
         <v>12101794</v>
       </c>
@@ -53760,7 +53179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" ht="16.5" spans="1:2">
+    <row r="337" spans="1:2" ht="16.5">
       <c r="A337">
         <v>12101608</v>
       </c>
@@ -53768,7 +53187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" ht="16.5" spans="1:2">
+    <row r="338" spans="1:2" ht="16.5">
       <c r="A338">
         <v>12101148</v>
       </c>
@@ -53776,7 +53195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" ht="16.5" spans="1:2">
+    <row r="339" spans="1:2" ht="16.5">
       <c r="A339">
         <v>12101310</v>
       </c>
@@ -53784,7 +53203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" ht="16.5" spans="1:2">
+    <row r="340" spans="1:2" ht="16.5">
       <c r="A340">
         <v>12101181</v>
       </c>
@@ -53792,7 +53211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" ht="16.5" spans="1:2">
+    <row r="341" spans="1:2" ht="16.5">
       <c r="A341">
         <v>12101084</v>
       </c>
@@ -53800,7 +53219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" ht="16.5" spans="1:2">
+    <row r="342" spans="1:2" ht="16.5">
       <c r="A342">
         <v>12101819</v>
       </c>
@@ -53808,7 +53227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" ht="16.5" spans="1:2">
+    <row r="343" spans="1:2" ht="16.5">
       <c r="A343">
         <v>12101468</v>
       </c>
@@ -53816,7 +53235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" ht="16.5" spans="1:2">
+    <row r="344" spans="1:2" ht="16.5">
       <c r="A344">
         <v>12101820</v>
       </c>
@@ -53824,7 +53243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" ht="16.5" spans="1:2">
+    <row r="345" spans="1:2" ht="16.5">
       <c r="A345">
         <v>12101404</v>
       </c>
@@ -53832,7 +53251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" ht="16.5" spans="1:2">
+    <row r="346" spans="1:2" ht="16.5">
       <c r="A346">
         <v>12101714</v>
       </c>
@@ -53840,7 +53259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" ht="16.5" spans="1:2">
+    <row r="347" spans="1:2" ht="16.5">
       <c r="A347">
         <v>12101423</v>
       </c>
@@ -53848,7 +53267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" ht="16.5" spans="1:2">
+    <row r="348" spans="1:2" ht="16.5">
       <c r="A348">
         <v>12101646</v>
       </c>
@@ -53856,7 +53275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" ht="16.5" spans="1:2">
+    <row r="349" spans="1:2" ht="16.5">
       <c r="A349">
         <v>12101564</v>
       </c>
@@ -53864,7 +53283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" ht="16.5" spans="1:2">
+    <row r="350" spans="1:2" ht="16.5">
       <c r="A350">
         <v>12101300</v>
       </c>
@@ -53872,7 +53291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" ht="16.5" spans="1:2">
+    <row r="351" spans="1:2" ht="16.5">
       <c r="A351">
         <v>12101852</v>
       </c>
@@ -53880,7 +53299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" ht="16.5" spans="1:2">
+    <row r="352" spans="1:2" ht="16.5">
       <c r="A352">
         <v>12101750</v>
       </c>
@@ -53888,7 +53307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" ht="16.5" spans="1:2">
+    <row r="353" spans="1:2" ht="16.5">
       <c r="A353" s="16">
         <v>12101420</v>
       </c>
@@ -53896,7 +53315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" ht="16.5" spans="1:2">
+    <row r="354" spans="1:2" ht="16.5">
       <c r="A354">
         <v>12101894</v>
       </c>
@@ -53904,7 +53323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" ht="16.5" spans="1:2">
+    <row r="355" spans="1:2" ht="16.5">
       <c r="A355">
         <v>12101830</v>
       </c>
@@ -53912,7 +53331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" ht="16.5" spans="1:2">
+    <row r="356" spans="1:2" ht="16.5">
       <c r="A356" s="16">
         <v>12101485</v>
       </c>
@@ -53920,7 +53339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" ht="16.5" spans="1:2">
+    <row r="357" spans="1:2" ht="16.5">
       <c r="A357">
         <v>12101314</v>
       </c>
@@ -53928,7 +53347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" ht="16.5" spans="1:2">
+    <row r="358" spans="1:2" ht="16.5">
       <c r="A358">
         <v>12101123</v>
       </c>
@@ -53936,7 +53355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" ht="16.5" spans="1:2">
+    <row r="359" spans="1:2" ht="16.5">
       <c r="A359" s="16">
         <v>12101561</v>
       </c>
@@ -53944,7 +53363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" ht="16.5" spans="1:2">
+    <row r="360" spans="1:2" ht="16.5">
       <c r="A360">
         <v>12101582</v>
       </c>
@@ -53952,7 +53371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" ht="16.5" spans="1:2">
+    <row r="361" spans="1:2" ht="16.5">
       <c r="A361">
         <v>12101705</v>
       </c>
@@ -53960,7 +53379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" ht="16.5" spans="1:2">
+    <row r="362" spans="1:2" ht="16.5">
       <c r="A362">
         <v>12101045</v>
       </c>
@@ -53968,7 +53387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" ht="16.5" spans="1:2">
+    <row r="363" spans="1:2" ht="16.5">
       <c r="A363">
         <v>12101248</v>
       </c>
@@ -53976,7 +53395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" ht="16.5" spans="1:2">
+    <row r="364" spans="1:2" ht="16.5">
       <c r="A364">
         <v>12101222</v>
       </c>
@@ -53984,7 +53403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" ht="16.5" spans="1:2">
+    <row r="365" spans="1:2" ht="16.5">
       <c r="A365">
         <v>12101003</v>
       </c>
@@ -53992,7 +53411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" ht="16.5" spans="1:2">
+    <row r="366" spans="1:2" ht="16.5">
       <c r="A366">
         <v>12101725</v>
       </c>
@@ -54000,7 +53419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" ht="16.5" spans="1:2">
+    <row r="367" spans="1:2" ht="16.5">
       <c r="A367">
         <v>12101285</v>
       </c>
@@ -54008,7 +53427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" ht="16.5" spans="1:2">
+    <row r="368" spans="1:2" ht="16.5">
       <c r="A368">
         <v>12101812</v>
       </c>
@@ -54016,7 +53435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" ht="16.5" spans="1:2">
+    <row r="369" spans="1:2" ht="16.5">
       <c r="A369">
         <v>12101500</v>
       </c>
@@ -54024,7 +53443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" ht="16.5" spans="1:2">
+    <row r="370" spans="1:2" ht="16.5">
       <c r="A370">
         <v>12101288</v>
       </c>
@@ -54032,7 +53451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" ht="16.5" spans="1:2">
+    <row r="371" spans="1:2" ht="16.5">
       <c r="A371">
         <v>12101717</v>
       </c>
@@ -54040,7 +53459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" ht="16.5" spans="1:2">
+    <row r="372" spans="1:2" ht="16.5">
       <c r="A372">
         <v>12101671</v>
       </c>
@@ -54048,7 +53467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" ht="16.5" spans="1:2">
+    <row r="373" spans="1:2" ht="16.5">
       <c r="A373">
         <v>12101114</v>
       </c>
@@ -54056,7 +53475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" ht="16.5" spans="1:2">
+    <row r="374" spans="1:2" ht="16.5">
       <c r="A374">
         <v>12101149</v>
       </c>
@@ -54064,7 +53483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" ht="16.5" spans="1:2">
+    <row r="375" spans="1:2" ht="16.5">
       <c r="A375">
         <v>12101716</v>
       </c>
@@ -54072,7 +53491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" ht="16.5" spans="1:2">
+    <row r="376" spans="1:2" ht="16.5">
       <c r="A376">
         <v>12101774</v>
       </c>
@@ -54080,7 +53499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" ht="16.5" spans="1:2">
+    <row r="377" spans="1:2" ht="16.5">
       <c r="A377">
         <v>12101626</v>
       </c>
@@ -54088,7 +53507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" ht="16.5" spans="1:2">
+    <row r="378" spans="1:2" ht="16.5">
       <c r="A378">
         <v>12101611</v>
       </c>
@@ -54096,7 +53515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" ht="16.5" spans="1:2">
+    <row r="379" spans="1:2" ht="16.5">
       <c r="A379">
         <v>12101209</v>
       </c>
@@ -54104,7 +53523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" ht="16.5" spans="1:2">
+    <row r="380" spans="1:2" ht="16.5">
       <c r="A380">
         <v>12101990</v>
       </c>
@@ -54112,7 +53531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" ht="16.5" spans="1:2">
+    <row r="381" spans="1:2" ht="16.5">
       <c r="A381">
         <v>12101121</v>
       </c>
@@ -54120,7 +53539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" ht="16.5" spans="1:2">
+    <row r="382" spans="1:2" ht="16.5">
       <c r="A382">
         <v>12101284</v>
       </c>
@@ -54128,7 +53547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" ht="16.5" spans="1:2">
+    <row r="383" spans="1:2" ht="16.5">
       <c r="A383">
         <v>12101076</v>
       </c>
@@ -54136,7 +53555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" ht="16.5" spans="1:2">
+    <row r="384" spans="1:2" ht="16.5">
       <c r="A384">
         <v>12101143</v>
       </c>
@@ -54144,7 +53563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" ht="16.5" spans="1:2">
+    <row r="385" spans="1:2" ht="16.5">
       <c r="A385">
         <v>12101125</v>
       </c>
@@ -54152,7 +53571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" ht="16.5" spans="1:2">
+    <row r="386" spans="1:2" ht="16.5">
       <c r="A386">
         <v>12101147</v>
       </c>
@@ -54160,7 +53579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" ht="16.5" spans="1:2">
+    <row r="387" spans="1:2" ht="16.5">
       <c r="A387">
         <v>12101428</v>
       </c>
@@ -54168,7 +53587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" ht="16.5" spans="1:2">
+    <row r="388" spans="1:2" ht="16.5">
       <c r="A388">
         <v>12101822</v>
       </c>
@@ -54176,7 +53595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" ht="16.5" spans="1:2">
+    <row r="389" spans="1:2" ht="16.5">
       <c r="A389">
         <v>12101063</v>
       </c>
@@ -54184,7 +53603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" ht="16.5" spans="1:2">
+    <row r="390" spans="1:2" ht="16.5">
       <c r="A390">
         <v>12101235</v>
       </c>
@@ -54192,7 +53611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" ht="16.5" spans="1:2">
+    <row r="391" spans="1:2" ht="16.5">
       <c r="A391">
         <v>12101755</v>
       </c>
@@ -54200,7 +53619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" ht="16.5" spans="1:2">
+    <row r="392" spans="1:2" ht="16.5">
       <c r="A392">
         <v>12101637</v>
       </c>
@@ -54208,7 +53627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" ht="16.5" spans="1:2">
+    <row r="393" spans="1:2" ht="16.5">
       <c r="A393">
         <v>12101533</v>
       </c>
@@ -54216,7 +53635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" ht="16.5" spans="1:2">
+    <row r="394" spans="1:2" ht="16.5">
       <c r="A394">
         <v>12101945</v>
       </c>
@@ -54224,7 +53643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" ht="16.5" spans="1:2">
+    <row r="395" spans="1:2" ht="16.5">
       <c r="A395">
         <v>12101616</v>
       </c>
@@ -54232,7 +53651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" ht="16.5" spans="1:2">
+    <row r="396" spans="1:2" ht="16.5">
       <c r="A396">
         <v>12101262</v>
       </c>
@@ -54240,7 +53659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" ht="16.5" spans="1:2">
+    <row r="397" spans="1:2" ht="16.5">
       <c r="A397">
         <v>12101124</v>
       </c>
@@ -54248,7 +53667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" ht="16.5" spans="1:2">
+    <row r="398" spans="1:2" ht="16.5">
       <c r="A398">
         <v>12101980</v>
       </c>
@@ -54256,7 +53675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" ht="16.5" spans="1:2">
+    <row r="399" spans="1:2" ht="16.5">
       <c r="A399">
         <v>12101732</v>
       </c>
@@ -54264,7 +53683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" ht="16.5" spans="1:2">
+    <row r="400" spans="1:2" ht="16.5">
       <c r="A400">
         <v>12101633</v>
       </c>
@@ -54272,7 +53691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" ht="16.5" spans="1:2">
+    <row r="401" spans="1:2" ht="16.5">
       <c r="A401">
         <v>12101585</v>
       </c>
@@ -54280,7 +53699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" ht="16.5" spans="1:2">
+    <row r="402" spans="1:2" ht="16.5">
       <c r="A402">
         <v>12101686</v>
       </c>
@@ -54288,7 +53707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" ht="16.5" spans="1:2">
+    <row r="403" spans="1:2" ht="16.5">
       <c r="A403">
         <v>12101100</v>
       </c>
@@ -54296,7 +53715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" ht="16.5" spans="1:2">
+    <row r="404" spans="1:2" ht="16.5">
       <c r="A404">
         <v>12101720</v>
       </c>
@@ -54304,7 +53723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" ht="16.5" spans="1:2">
+    <row r="405" spans="1:2" ht="16.5">
       <c r="A405">
         <v>12101546</v>
       </c>
@@ -54312,7 +53731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" ht="16.5" spans="1:2">
+    <row r="406" spans="1:2" ht="16.5">
       <c r="A406">
         <v>12101317</v>
       </c>
@@ -54320,7 +53739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" ht="16.5" spans="1:2">
+    <row r="407" spans="1:2" ht="16.5">
       <c r="A407">
         <v>12101666</v>
       </c>
@@ -54328,7 +53747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" ht="16.5" spans="1:2">
+    <row r="408" spans="1:2" ht="16.5">
       <c r="A408">
         <v>12101344</v>
       </c>
@@ -54336,7 +53755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" ht="16.5" spans="1:2">
+    <row r="409" spans="1:2" ht="16.5">
       <c r="A409">
         <v>12101323</v>
       </c>
@@ -54344,7 +53763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" ht="16.5" spans="1:2">
+    <row r="410" spans="1:2" ht="16.5">
       <c r="A410">
         <v>12101562</v>
       </c>
@@ -54352,7 +53771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" ht="16.5" spans="1:2">
+    <row r="411" spans="1:2" ht="16.5">
       <c r="A411">
         <v>12101937</v>
       </c>
@@ -54360,7 +53779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" ht="16.5" spans="1:2">
+    <row r="412" spans="1:2" ht="16.5">
       <c r="A412">
         <v>12101164</v>
       </c>
@@ -54368,7 +53787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" ht="16.5" spans="1:2">
+    <row r="413" spans="1:2" ht="16.5">
       <c r="A413">
         <v>12101457</v>
       </c>
@@ -54376,7 +53795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" ht="16.5" spans="1:2">
+    <row r="414" spans="1:2" ht="16.5">
       <c r="A414">
         <v>12101531</v>
       </c>
@@ -54384,7 +53803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" ht="16.5" spans="1:2">
+    <row r="415" spans="1:2" ht="16.5">
       <c r="A415">
         <v>12101328</v>
       </c>
@@ -54392,7 +53811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" ht="16.5" spans="1:2">
+    <row r="416" spans="1:2" ht="16.5">
       <c r="A416">
         <v>12101229</v>
       </c>
@@ -54400,7 +53819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" ht="16.5" spans="1:2">
+    <row r="417" spans="1:2" ht="16.5">
       <c r="A417">
         <v>12101573</v>
       </c>
@@ -54408,7 +53827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" ht="16.5" spans="1:2">
+    <row r="418" spans="1:2" ht="16.5">
       <c r="A418">
         <v>12101969</v>
       </c>
@@ -54416,7 +53835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" ht="16.5" spans="1:2">
+    <row r="419" spans="1:2" ht="16.5">
       <c r="A419">
         <v>12101068</v>
       </c>
@@ -54424,7 +53843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" ht="16.5" spans="1:2">
+    <row r="420" spans="1:2" ht="16.5">
       <c r="A420">
         <v>12101669</v>
       </c>
@@ -54432,7 +53851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" ht="16.5" spans="1:2">
+    <row r="421" spans="1:2" ht="16.5">
       <c r="A421">
         <v>12101976</v>
       </c>
@@ -54440,7 +53859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" ht="16.5" spans="1:2">
+    <row r="422" spans="1:2" ht="16.5">
       <c r="A422">
         <v>12101105</v>
       </c>
@@ -54448,7 +53867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" ht="16.5" spans="1:2">
+    <row r="423" spans="1:2" ht="16.5">
       <c r="A423">
         <v>12101061</v>
       </c>
@@ -54456,7 +53875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" ht="16.5" spans="1:2">
+    <row r="424" spans="1:2" ht="16.5">
       <c r="A424">
         <v>12101907</v>
       </c>
@@ -54464,7 +53883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" ht="16.5" spans="1:2">
+    <row r="425" spans="1:2" ht="16.5">
       <c r="A425">
         <v>12101977</v>
       </c>
@@ -54472,7 +53891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" ht="16.5" spans="1:2">
+    <row r="426" spans="1:2" ht="16.5">
       <c r="A426">
         <v>12101269</v>
       </c>
@@ -54480,7 +53899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" ht="16.5" spans="1:2">
+    <row r="427" spans="1:2" ht="16.5">
       <c r="A427">
         <v>12101269</v>
       </c>
@@ -54488,7 +53907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" ht="16.5" spans="1:2">
+    <row r="428" spans="1:2" ht="16.5">
       <c r="A428">
         <v>12101070</v>
       </c>
@@ -54496,7 +53915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" ht="16.5" spans="1:2">
+    <row r="429" spans="1:2" ht="16.5">
       <c r="A429">
         <v>12101521</v>
       </c>
@@ -54504,7 +53923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" ht="16.5" spans="1:2">
+    <row r="430" spans="1:2" ht="16.5">
       <c r="A430">
         <v>12101768</v>
       </c>
@@ -54512,7 +53931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" ht="16.5" spans="1:2">
+    <row r="431" spans="1:2" ht="16.5">
       <c r="A431">
         <v>12101022</v>
       </c>
@@ -54520,7 +53939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" ht="16.5" spans="1:2">
+    <row r="432" spans="1:2" ht="16.5">
       <c r="A432">
         <v>12101524</v>
       </c>
@@ -54528,7 +53947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" ht="16.5" spans="1:2">
+    <row r="433" spans="1:2" ht="16.5">
       <c r="A433">
         <v>12101692</v>
       </c>
@@ -54536,7 +53955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" ht="16.5" spans="1:2">
+    <row r="434" spans="1:2" ht="16.5">
       <c r="A434">
         <v>12101629</v>
       </c>
@@ -54544,7 +53963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" ht="16.5" spans="1:2">
+    <row r="435" spans="1:2" ht="16.5">
       <c r="A435">
         <v>12101392</v>
       </c>
@@ -54552,7 +53971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" ht="16.5" spans="1:2">
+    <row r="436" spans="1:2" ht="16.5">
       <c r="A436">
         <v>12101773</v>
       </c>
@@ -54560,7 +53979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" ht="16.5" spans="1:2">
+    <row r="437" spans="1:2" ht="16.5">
       <c r="A437">
         <v>12101039</v>
       </c>
@@ -54568,7 +53987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" ht="16.5" spans="1:2">
+    <row r="438" spans="1:2" ht="16.5">
       <c r="A438">
         <v>12101961</v>
       </c>
@@ -54576,7 +53995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" ht="16.5" spans="1:2">
+    <row r="439" spans="1:2" ht="16.5">
       <c r="A439">
         <v>12101985</v>
       </c>
@@ -54584,7 +54003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" ht="16.5" spans="1:2">
+    <row r="440" spans="1:2" ht="16.5">
       <c r="A440">
         <v>12101015</v>
       </c>
@@ -54592,7 +54011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" ht="16.5" spans="1:2">
+    <row r="441" spans="1:2" ht="16.5">
       <c r="A441">
         <v>12101761</v>
       </c>
@@ -54600,7 +54019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" ht="16.5" spans="1:2">
+    <row r="442" spans="1:2" ht="16.5">
       <c r="A442">
         <v>12101271</v>
       </c>
@@ -54608,7 +54027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" ht="16.5" spans="1:2">
+    <row r="443" spans="1:2" ht="16.5">
       <c r="A443">
         <v>12101760</v>
       </c>
@@ -54616,7 +54035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" ht="16.5" spans="1:2">
+    <row r="444" spans="1:2" ht="16.5">
       <c r="A444">
         <v>12101899</v>
       </c>
@@ -54624,7 +54043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" ht="16.5" spans="1:2">
+    <row r="445" spans="1:2" ht="16.5">
       <c r="A445">
         <v>12101006</v>
       </c>
@@ -54632,7 +54051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" ht="16.5" spans="1:2">
+    <row r="446" spans="1:2" ht="16.5">
       <c r="A446">
         <v>12101073</v>
       </c>
@@ -54640,7 +54059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" ht="16.5" spans="1:2">
+    <row r="447" spans="1:2" ht="16.5">
       <c r="A447" s="16">
         <v>12101680</v>
       </c>
@@ -54648,7 +54067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" ht="16.5" spans="1:2">
+    <row r="448" spans="1:2" ht="16.5">
       <c r="A448">
         <v>12101172</v>
       </c>
@@ -54656,7 +54075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="449" ht="16.5" spans="1:2">
+    <row r="449" spans="1:2" ht="16.5">
       <c r="A449">
         <v>12101218</v>
       </c>
@@ -54664,7 +54083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="450" ht="16.5" spans="1:2">
+    <row r="450" spans="1:2" ht="16.5">
       <c r="A450">
         <v>12101604</v>
       </c>
@@ -54672,7 +54091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="451" ht="16.5" spans="1:2">
+    <row r="451" spans="1:2" ht="16.5">
       <c r="A451">
         <v>12101726</v>
       </c>
@@ -54680,7 +54099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="452" ht="16.5" spans="1:2">
+    <row r="452" spans="1:2" ht="16.5">
       <c r="A452">
         <v>12101743</v>
       </c>
@@ -54688,7 +54107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="453" ht="16.5" spans="1:2">
+    <row r="453" spans="1:2" ht="16.5">
       <c r="A453">
         <v>12101352</v>
       </c>
@@ -54696,7 +54115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="454" ht="16.5" spans="1:2">
+    <row r="454" spans="1:2" ht="16.5">
       <c r="A454">
         <v>12101987</v>
       </c>
@@ -54704,7 +54123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="455" ht="16.5" spans="1:2">
+    <row r="455" spans="1:2" ht="16.5">
       <c r="A455">
         <v>12101867</v>
       </c>
@@ -54712,7 +54131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="456" ht="16.5" spans="1:2">
+    <row r="456" spans="1:2" ht="16.5">
       <c r="A456">
         <v>12101735</v>
       </c>
@@ -54720,7 +54139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" ht="16.5" spans="1:2">
+    <row r="457" spans="1:2" ht="16.5">
       <c r="A457">
         <v>12101957</v>
       </c>
@@ -54728,7 +54147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="458" ht="16.5" spans="1:2">
+    <row r="458" spans="1:2" ht="16.5">
       <c r="A458">
         <v>12101952</v>
       </c>
@@ -54736,7 +54155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="459" ht="16.5" spans="1:2">
+    <row r="459" spans="1:2" ht="16.5">
       <c r="A459">
         <v>12101111</v>
       </c>
@@ -54744,7 +54163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="460" ht="16.5" spans="1:2">
+    <row r="460" spans="1:2" ht="16.5">
       <c r="A460">
         <v>12101854</v>
       </c>
@@ -54752,7 +54171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="461" ht="16.5" spans="1:2">
+    <row r="461" spans="1:2" ht="16.5">
       <c r="A461">
         <v>12101753</v>
       </c>
@@ -54760,7 +54179,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="462" ht="16.5" spans="1:2">
+    <row r="462" spans="1:2" ht="16.5">
       <c r="A462">
         <v>12101964</v>
       </c>
@@ -54768,7 +54187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="463" ht="16.5" spans="1:2">
+    <row r="463" spans="1:2" ht="16.5">
       <c r="A463">
         <v>12101292</v>
       </c>
@@ -54776,7 +54195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="464" ht="16.5" spans="1:2">
+    <row r="464" spans="1:2" ht="16.5">
       <c r="A464">
         <v>12101866</v>
       </c>
@@ -54784,7 +54203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="465" ht="16.5" spans="1:2">
+    <row r="465" spans="1:2" ht="16.5">
       <c r="A465">
         <v>12101139</v>
       </c>
@@ -54792,7 +54211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" ht="16.5" spans="1:2">
+    <row r="466" spans="1:2" ht="16.5">
       <c r="A466">
         <v>12101654</v>
       </c>
@@ -54800,7 +54219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="467" ht="16.5" spans="1:2">
+    <row r="467" spans="1:2" ht="16.5">
       <c r="A467">
         <v>12101851</v>
       </c>
@@ -54808,7 +54227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" ht="16.5" spans="1:2">
+    <row r="468" spans="1:2" ht="16.5">
       <c r="A468">
         <v>12101260</v>
       </c>
@@ -54816,7 +54235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="469" ht="16.5" spans="1:2">
+    <row r="469" spans="1:2" ht="16.5">
       <c r="A469">
         <v>12101368</v>
       </c>
@@ -54824,7 +54243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" ht="16.5" spans="1:2">
+    <row r="470" spans="1:2" ht="16.5">
       <c r="A470">
         <v>12101429</v>
       </c>
@@ -54832,7 +54251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="471" ht="16.5" spans="1:2">
+    <row r="471" spans="1:2" ht="16.5">
       <c r="A471">
         <v>12101170</v>
       </c>
@@ -54840,7 +54259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="472" ht="16.5" spans="1:2">
+    <row r="472" spans="1:2" ht="16.5">
       <c r="A472">
         <v>12101327</v>
       </c>
@@ -54848,7 +54267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" ht="16.5" spans="1:2">
+    <row r="473" spans="1:2" ht="16.5">
       <c r="A473">
         <v>12101376</v>
       </c>
@@ -54856,7 +54275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="474" ht="16.5" spans="1:2">
+    <row r="474" spans="1:2" ht="16.5">
       <c r="A474">
         <v>12101302</v>
       </c>
@@ -54864,7 +54283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" ht="16.5" spans="1:2">
+    <row r="475" spans="1:2" ht="16.5">
       <c r="A475">
         <v>12101628</v>
       </c>
@@ -54872,7 +54291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" ht="16.5" spans="1:2">
+    <row r="476" spans="1:2" ht="16.5">
       <c r="A476">
         <v>12101887</v>
       </c>
@@ -54880,7 +54299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" ht="16.5" spans="1:2">
+    <row r="477" spans="1:2" ht="16.5">
       <c r="A477">
         <v>12101736</v>
       </c>
@@ -54888,7 +54307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="478" ht="16.5" spans="1:2">
+    <row r="478" spans="1:2" ht="16.5">
       <c r="A478">
         <v>12101572</v>
       </c>
@@ -54896,7 +54315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="479" ht="16.5" spans="1:2">
+    <row r="479" spans="1:2" ht="16.5">
       <c r="A479">
         <v>12101346</v>
       </c>
@@ -54904,7 +54323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="480" ht="16.5" spans="1:2">
+    <row r="480" spans="1:2" ht="16.5">
       <c r="A480">
         <v>12101993</v>
       </c>
@@ -54912,7 +54331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="481" ht="16.5" spans="1:2">
+    <row r="481" spans="1:2" ht="16.5">
       <c r="A481">
         <v>12101644</v>
       </c>
@@ -54920,7 +54339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="482" ht="16.5" spans="1:2">
+    <row r="482" spans="1:2" ht="16.5">
       <c r="A482">
         <v>12101537</v>
       </c>
@@ -54928,7 +54347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" ht="16.5" spans="1:2">
+    <row r="483" spans="1:2" ht="16.5">
       <c r="A483">
         <v>12101674</v>
       </c>
@@ -54936,7 +54355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" ht="16.5" spans="1:2">
+    <row r="484" spans="1:2" ht="16.5">
       <c r="A484">
         <v>12101783</v>
       </c>
@@ -54944,7 +54363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" ht="16.5" spans="1:2">
+    <row r="485" spans="1:2" ht="16.5">
       <c r="A485">
         <v>12101538</v>
       </c>
@@ -54952,7 +54371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" ht="16.5" spans="1:2">
+    <row r="486" spans="1:2" ht="16.5">
       <c r="A486">
         <v>12101525</v>
       </c>
@@ -54960,7 +54379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="487" ht="16.5" spans="1:2">
+    <row r="487" spans="1:2" ht="16.5">
       <c r="A487">
         <v>12101929</v>
       </c>
@@ -54968,7 +54387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="488" ht="16.5" spans="1:2">
+    <row r="488" spans="1:2" ht="16.5">
       <c r="A488">
         <v>12101441</v>
       </c>
@@ -54976,7 +54395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="489" ht="16.5" spans="1:2">
+    <row r="489" spans="1:2" ht="16.5">
       <c r="A489">
         <v>12101020</v>
       </c>
@@ -54984,7 +54403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="490" ht="16.5" spans="1:2">
+    <row r="490" spans="1:2" ht="16.5">
       <c r="A490">
         <v>12101238</v>
       </c>
@@ -54992,7 +54411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" ht="16.5" spans="1:2">
+    <row r="491" spans="1:2" ht="16.5">
       <c r="A491">
         <v>12101283</v>
       </c>
@@ -55000,7 +54419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" ht="16.5" spans="1:2">
+    <row r="492" spans="1:2" ht="16.5">
       <c r="A492">
         <v>12101786</v>
       </c>
@@ -55008,7 +54427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="493" ht="16.5" spans="1:2">
+    <row r="493" spans="1:2" ht="16.5">
       <c r="A493">
         <v>12101308</v>
       </c>
@@ -55016,7 +54435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" ht="16.5" spans="1:2">
+    <row r="494" spans="1:2" ht="16.5">
       <c r="A494">
         <v>12101730</v>
       </c>
@@ -55024,7 +54443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="495" ht="16.5" spans="1:2">
+    <row r="495" spans="1:2" ht="16.5">
       <c r="A495">
         <v>12101826</v>
       </c>
@@ -55032,7 +54451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="496" ht="16.5" spans="1:2">
+    <row r="496" spans="1:2" ht="16.5">
       <c r="A496">
         <v>12101430</v>
       </c>
@@ -55040,7 +54459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="497" ht="16.5" spans="1:2">
+    <row r="497" spans="1:2" ht="16.5">
       <c r="A497">
         <v>12101896</v>
       </c>
@@ -55048,7 +54467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" ht="16.5" spans="1:2">
+    <row r="498" spans="1:2" ht="16.5">
       <c r="A498">
         <v>12101320</v>
       </c>
@@ -55056,7 +54475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="499" ht="16.5" spans="1:2">
+    <row r="499" spans="1:2" ht="16.5">
       <c r="A499">
         <v>12101734</v>
       </c>
@@ -55064,7 +54483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" ht="16.5" spans="1:2">
+    <row r="500" spans="1:2" ht="16.5">
       <c r="A500">
         <v>12101543</v>
       </c>
@@ -55072,7 +54491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" ht="16.5" spans="1:2">
+    <row r="501" spans="1:2" ht="16.5">
       <c r="A501">
         <v>12101999</v>
       </c>
@@ -55080,7 +54499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" ht="16.5" spans="1:2">
+    <row r="502" spans="1:2" ht="16.5">
       <c r="A502">
         <v>12101558</v>
       </c>
@@ -55088,7 +54507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" ht="16.5" spans="1:2">
+    <row r="503" spans="1:2" ht="16.5">
       <c r="A503">
         <v>12101129</v>
       </c>
@@ -55097,51 +54516,50 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4:B219 B220:B266 B267:B357 B358:B503 C13:C1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B503 C13:C1048576">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
       <formula1>5</formula1>
       <formula2>30</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="124.25" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:1">
+    <row r="1" spans="1:3" ht="21" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
+    <row r="3" spans="1:3" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>204</v>
       </c>
@@ -55149,7 +54567,8 @@
       <c r="C3" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>